--- a/Packet/PacketData/Quest.xlsx
+++ b/Packet/PacketData/Quest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="クエストデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">StageNo</t>
   </si>
   <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
     <t xml:space="preserve">State</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>
@@ -245,8 +245,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,10 +313,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -353,13 +353,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -368,27 +368,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,10 +396,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -436,25 +436,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -503,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -581,25 +581,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -648,25 +648,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -699,7 +699,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -715,25 +715,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -742,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>35</v>

--- a/Packet/PacketData/Quest.xlsx
+++ b/Packet/PacketData/Quest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">StageNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KillCount</t>
   </si>
   <si>
     <t xml:space="preserve">u8</t>
@@ -243,10 +246,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,10 +316,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -353,13 +367,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -368,27 +382,27 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,10 +410,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -436,25 +450,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -503,25 +517,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -581,25 +595,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -648,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -715,25 +729,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -742,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,10 +800,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Quest.xlsx
+++ b/Packet/PacketData/Quest.xlsx
@@ -5,16 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="クエストデータ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="クエストデータリスト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="クエスト受注" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="クエストステージ進行" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="クエストクリア" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="クエスト破棄リクエスト" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="クエスト破棄レスポンス" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="クエストアンパンキル" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="クエストステージ進行" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="クエストクリア" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="クエスト破棄リクエスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="クエスト破棄レスポンス" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t xml:space="preserve">QuestAccept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketQuestAnpanKill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestAnpanKill</t>
   </si>
   <si>
     <t xml:space="preserve">PacketQuestStageChange</t>
@@ -248,7 +255,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -499,6 +506,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -517,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -526,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -572,7 +646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -595,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -604,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -639,7 +713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -662,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -671,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -706,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -729,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -738,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -756,10 +830,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Quest.xlsx
+++ b/Packet/PacketData/Quest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="クエストデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="クエストクリア" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="クエスト破棄リクエスト" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="クエスト破棄レスポンス" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="アクティブクエスト保存" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -95,6 +96,9 @@
     <t xml:space="preserve">Quests</t>
   </si>
   <si>
+    <t xml:space="preserve">ActiveQuestId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketQuestAccept</t>
   </si>
   <si>
@@ -144,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSaveActiveQuest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveActiveQuest</t>
   </si>
 </sst>
 </file>
@@ -256,7 +266,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,10 +366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,6 +431,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -466,7 +487,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -508,7 +529,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -524,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -533,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -591,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -600,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -669,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -678,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -736,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -745,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -803,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -812,7 +833,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -830,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,10 +862,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +898,74 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Quest.xlsx
+++ b/Packet/PacketData/Quest.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -45,9 +45,15 @@
     <t xml:space="preserve">Active</t>
   </si>
   <si>
+    <t xml:space="preserve">進行中</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleared</t>
   </si>
   <si>
+    <t xml:space="preserve">クリア済み</t>
+  </si>
+  <si>
     <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
@@ -57,18 +63,30 @@
     <t xml:space="preserve">QuestId</t>
   </si>
   <si>
+    <t xml:space="preserve">クエストＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">StageNo</t>
   </si>
   <si>
+    <t xml:space="preserve">ステージ番号</t>
+  </si>
+  <si>
     <t xml:space="preserve">KillCount</t>
   </si>
   <si>
+    <t xml:space="preserve">殺害数</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">State</t>
   </si>
   <si>
+    <t xml:space="preserve">ステート</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketQuestData</t>
   </si>
   <si>
@@ -96,9 +114,15 @@
     <t xml:space="preserve">Quests</t>
   </si>
   <si>
+    <t xml:space="preserve">クエストリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">ActiveQuestId</t>
   </si>
   <si>
+    <t xml:space="preserve">アクティブクエストＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketQuestAccept</t>
   </si>
   <si>
@@ -141,13 +165,25 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">MainQuest</t>
   </si>
   <si>
+    <t xml:space="preserve">メインクエスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSaveActiveQuest</t>
@@ -263,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,6 +330,9 @@
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -303,51 +342,66 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -366,10 +420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,13 +438,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -399,49 +453,55 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -460,10 +520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,37 +538,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -527,10 +590,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,37 +608,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +660,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,48 +678,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +744,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,37 +762,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -739,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -757,37 +832,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +884,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,25 +902,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -851,10 +929,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,10 +943,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,32 +957,41 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +1010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,37 +1028,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
